--- a/bot.xlsx
+++ b/bot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latni\PycharmProjects\bot\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8576FD27-D8D7-4CCB-A339-A5C65CAECD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73FD797-58C4-4044-A17A-F4DA14B2FCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
   <si>
     <t>tech_button_name</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>На карте указаны два маршрута и объекты Усолья Строгановского, сориентируйся на местности и давай начинать!</t>
-  </si>
-  <si>
-    <t>btn_</t>
   </si>
   <si>
     <t>Посмотреть карту</t>
@@ -484,6 +481,15 @@
   </si>
   <si>
     <t>btn_vlad</t>
+  </si>
+  <si>
+    <t>btn_cerkov</t>
+  </si>
+  <si>
+    <t>btn_yakor</t>
+  </si>
+  <si>
+    <t>btn_sirin</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -610,7 +616,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -828,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -866,7 +871,7 @@
     </row>
     <row r="3" spans="1:5" ht="298.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -885,536 +890,536 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="6"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="C43" s="6"/>
     </row>

--- a/bot.xlsx
+++ b/bot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\latni\PycharmProjects\bot\usolye_stroganov_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73FD797-58C4-4044-A17A-F4DA14B2FCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C18B69-501E-437C-ADBE-F0B5A33BC096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
